--- a/Apple.xlsx
+++ b/Apple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limaa\Desktop\INSPER\Terceiro Semestre\C Dados\Projeto 1\P1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\P1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD508B-79C3-462F-AFB2-FF29D0BBB4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C21D6A5-C47F-46B3-A223-6A9EC2B4F010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1725,13 +1725,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,7 +1753,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2072,17 +2075,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="126.33203125" customWidth="1"/>
+    <col min="1" max="1" width="255.6328125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2090,1497 +2093,1500 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -3592,27 +3598,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:AI177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView topLeftCell="A147" zoomScale="43" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="255.76953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6796875" customWidth="1"/>
+    <col min="3" max="3" width="120.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -3620,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -3628,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -3636,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -3644,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -3652,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -3660,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -3668,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>308</v>
       </c>
@@ -3676,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -3684,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>310</v>
       </c>
@@ -3692,7 +3732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -3700,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -3708,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -3716,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -3724,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -3732,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -3740,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -3748,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -3756,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -3764,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -3772,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -3780,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -3788,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -3796,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -3804,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -3812,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>326</v>
       </c>
@@ -3820,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -3828,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>328</v>
       </c>
@@ -3836,7 +3876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -3844,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -3852,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -3860,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -3868,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>333</v>
       </c>
@@ -3876,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -3884,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -3892,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -3900,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -3908,7 +3948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -3916,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -3924,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -3932,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>341</v>
       </c>
@@ -3940,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -3948,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -3956,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -3964,7 +4004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -3972,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -3980,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -3988,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -3996,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -4004,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -4012,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -4020,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -4028,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -4036,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -4044,7 +4084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -4052,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -4060,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -4068,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -4076,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -4084,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -4092,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -4100,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -4108,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -4116,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -4124,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -4132,7 +4172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -4140,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -4148,7 +4188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -4156,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>369</v>
       </c>
@@ -4164,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -4172,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -4180,7 +4220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -4188,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>373</v>
       </c>
@@ -4196,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -4204,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>375</v>
       </c>
@@ -4212,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -4220,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -4228,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -4236,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -4244,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -4252,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -4260,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -4268,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -4276,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>384</v>
       </c>
@@ -4284,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -4292,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -4300,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -4308,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -4316,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -4324,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -4332,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>391</v>
       </c>
@@ -4340,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -4348,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -4356,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -4364,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -4372,7 +4412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -4380,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -4388,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>398</v>
       </c>
@@ -4396,7 +4436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -4404,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -4412,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -4420,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>402</v>
       </c>
@@ -4428,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>403</v>
       </c>
@@ -4436,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -4444,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>405</v>
       </c>
@@ -4452,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -4460,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>407</v>
       </c>
@@ -4468,7 +4508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>408</v>
       </c>
@@ -4476,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -4484,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -4492,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -4500,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -4508,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -4516,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>414</v>
       </c>
@@ -4524,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>415</v>
       </c>
@@ -4532,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -4540,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -4548,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>418</v>
       </c>
@@ -4556,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -4564,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -4572,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>421</v>
       </c>
@@ -4580,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -4588,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>423</v>
       </c>
@@ -4596,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -4604,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -4612,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>426</v>
       </c>
@@ -4620,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -4628,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>428</v>
       </c>
@@ -4636,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -4644,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -4652,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -4660,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -4668,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>433</v>
       </c>
@@ -4676,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -4684,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -4692,7 +4732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -4700,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -4708,7 +4748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -4716,7 +4756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -4724,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>440</v>
       </c>
@@ -4732,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -4740,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -4748,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -4756,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -4764,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -4772,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>446</v>
       </c>
@@ -4780,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>447</v>
       </c>
@@ -4788,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -4796,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -4804,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -4812,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>451</v>
       </c>
@@ -4820,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -4828,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -4836,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -4844,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -4852,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -4860,7 +4900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -4868,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -4876,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -4884,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>460</v>
       </c>
@@ -4892,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -4900,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>462</v>
       </c>
@@ -4908,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -4916,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -4924,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>465</v>
       </c>
@@ -4932,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>466</v>
       </c>
@@ -4940,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>467</v>
       </c>
@@ -4948,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>468</v>
       </c>
@@ -4956,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>469</v>
       </c>
@@ -4964,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -4972,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>471</v>
       </c>
@@ -4980,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>472</v>
       </c>
@@ -4988,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>473</v>
       </c>
@@ -4996,7 +5036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>474</v>
       </c>
@@ -5004,13 +5044,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B176">
         <v>0</v>
       </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A177" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Apple.xlsx
+++ b/Apple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\P1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C21D6A5-C47F-46B3-A223-6A9EC2B4F010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122DA967-2C46-460C-83A8-4C467870EA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1665,7 +1665,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,6 +1685,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1725,7 +1731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1734,6 +1740,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2073,15 +2082,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="255.6328125" customWidth="1"/>
+    <col min="1" max="1" width="255.58984375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2105,1493 +2114,2393 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A83" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A278" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A279" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A280" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A281" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A282" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A283" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A284" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A285" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A286" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A287" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A288" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A289" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A290" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A291" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A292" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A293" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A295" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A296" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A297" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A298" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A299" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A300" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A301" t="s">
         <v>299</v>
       </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Apple.xlsx
+++ b/Apple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\P1-CDados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limaa\Desktop\INSPER\Terceiro Semestre\C Dados\Projeto 1\P1-CDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122DA967-2C46-460C-83A8-4C467870EA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3CCEB8-EFA9-4504-9390-1E2DEAABBC4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1762,7 +1762,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2082,19 +2082,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="58" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.58984375" customWidth="1"/>
+    <col min="1" max="1" width="255.5546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -4182,320 +4182,315 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
       <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B274">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B283">
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B299">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B300">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
-      <c r="A301" t="s">
-        <v>299</v>
-      </c>
-      <c r="B301">
         <v>1</v>
       </c>
     </row>
@@ -4513,14 +4508,14 @@
       <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="255.76953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6796875" customWidth="1"/>
-    <col min="3" max="3" width="120.6796875" customWidth="1"/>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -4561,7 +4556,7 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -4569,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -4577,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -4585,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -4593,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -4601,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -4609,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -4617,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>308</v>
       </c>
@@ -4625,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -4633,7 +4628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>310</v>
       </c>
@@ -4641,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -4649,7 +4644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -4657,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -4665,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -4673,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -4681,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -4697,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -4705,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -4713,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -4721,7 +4716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -4729,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -4737,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -4745,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -4753,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -4761,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>326</v>
       </c>
@@ -4769,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>328</v>
       </c>
@@ -4785,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -4793,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -4801,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -4809,7 +4804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -4817,7 +4812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>333</v>
       </c>
@@ -4825,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -4833,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -4841,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -4849,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -4857,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -4865,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -4873,7 +4868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -4881,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>341</v>
       </c>
@@ -4889,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -4897,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -4905,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -4913,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -4929,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -4937,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -4945,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -4953,7 +4948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -4961,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -4969,7 +4964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -4977,7 +4972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -4985,7 +4980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -4993,7 +4988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -5001,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -5009,7 +5004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -5017,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -5025,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -5033,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -5041,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -5049,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -5057,7 +5052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -5065,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -5073,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -5081,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -5089,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -5097,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -5105,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>369</v>
       </c>
@@ -5113,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -5121,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -5129,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -5137,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>373</v>
       </c>
@@ -5145,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -5153,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>375</v>
       </c>
@@ -5161,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -5169,7 +5164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -5177,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -5185,7 +5180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -5193,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -5201,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -5209,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -5217,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -5225,7 +5220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>384</v>
       </c>
@@ -5233,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -5241,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -5249,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -5257,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -5265,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -5273,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -5281,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>391</v>
       </c>
@@ -5289,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -5297,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -5305,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -5313,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -5321,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -5329,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -5337,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>398</v>
       </c>
@@ -5345,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -5353,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -5361,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -5369,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>402</v>
       </c>
@@ -5377,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>403</v>
       </c>
@@ -5385,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -5393,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>405</v>
       </c>
@@ -5401,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -5409,7 +5404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>407</v>
       </c>
@@ -5417,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>408</v>
       </c>
@@ -5425,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -5433,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -5441,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -5449,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -5457,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -5465,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>414</v>
       </c>
@@ -5473,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>415</v>
       </c>
@@ -5481,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -5489,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -5497,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>418</v>
       </c>
@@ -5505,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -5513,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -5521,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>421</v>
       </c>
@@ -5529,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -5537,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>423</v>
       </c>
@@ -5545,7 +5540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -5553,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -5561,7 +5556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>426</v>
       </c>
@@ -5569,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -5577,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>428</v>
       </c>
@@ -5585,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -5593,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -5601,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -5609,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -5617,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>433</v>
       </c>
@@ -5625,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -5633,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -5641,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -5649,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -5657,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -5665,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -5673,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>440</v>
       </c>
@@ -5681,7 +5676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -5689,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -5697,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -5705,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -5713,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -5721,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>446</v>
       </c>
@@ -5729,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>447</v>
       </c>
@@ -5737,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -5745,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -5753,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -5761,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>451</v>
       </c>
@@ -5769,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -5777,7 +5772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -5785,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -5793,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -5801,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -5809,7 +5804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -5817,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -5825,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -5833,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>460</v>
       </c>
@@ -5841,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -5849,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>462</v>
       </c>
@@ -5857,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -5865,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -5873,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>465</v>
       </c>
@@ -5881,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>466</v>
       </c>
@@ -5889,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>467</v>
       </c>
@@ -5897,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>468</v>
       </c>
@@ -5905,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>469</v>
       </c>
@@ -5913,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -5921,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>471</v>
       </c>
@@ -5929,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>472</v>
       </c>
@@ -5937,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>473</v>
       </c>
@@ -5945,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>474</v>
       </c>
@@ -5953,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>475</v>
       </c>
@@ -5961,7 +5956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
     </row>
   </sheetData>
